--- a/emberlista.xlsx
+++ b/emberlista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Programozás\IKT projekt munka Bandi Lorin\IKT_projektmunka_LB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389F4913-956C-413C-BFDE-C348AD7BA409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26651A8-BB9E-4026-868E-635EADB32DD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="7980" xr2:uid="{2FF13B89-7233-4B07-B9E9-FCD2BF7E766D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>kutyaneve</t>
   </si>
@@ -69,7 +69,52 @@
     <t>kiss.bela@gmail.com</t>
   </si>
   <si>
-    <t>Győr Űnagy utca 6.</t>
+    <t>Karcsi</t>
+  </si>
+  <si>
+    <t>Horváth Réka</t>
+  </si>
+  <si>
+    <t>36 30 942 3614</t>
+  </si>
+  <si>
+    <t>horvath.reka@gmail.com</t>
+  </si>
+  <si>
+    <t>Győr Nagy utca 6.</t>
+  </si>
+  <si>
+    <t>Győr Jereváni út 23.</t>
+  </si>
+  <si>
+    <t>Lüszi</t>
+  </si>
+  <si>
+    <t>Kovács Ernő</t>
+  </si>
+  <si>
+    <t>30 70 542 7823</t>
+  </si>
+  <si>
+    <t>kovacs.erno@gmail.com</t>
+  </si>
+  <si>
+    <t>Győr Tihanyi Árpád utca 10.</t>
+  </si>
+  <si>
+    <t>Győr Mester utca 9.</t>
+  </si>
+  <si>
+    <t>Artemisz</t>
+  </si>
+  <si>
+    <t>Balogh Sára</t>
+  </si>
+  <si>
+    <t>30 40 589 2561</t>
+  </si>
+  <si>
+    <t>balogh.sara@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -434,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8416CC-A0AD-4750-B546-F3880259D5F7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,13 +542,67 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{2A765F66-E5DF-44B7-9300-E0C852C44CCD}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{1C38A481-F035-40B7-BAEA-22C3C594594B}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6BE4158D-F115-45F6-88C6-9EE0949DC5BB}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{3E25342C-AD10-4BFA-94CC-730B4B92494C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{5E5B568A-16C2-47BA-8469-47C7BB8539FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
